--- a/data/trans_camb/P32-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 6,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 5,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 8,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 1,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,8; 1,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 1,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 4,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 6,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,11%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,59; 351,98</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-17,22; 308,49</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17,7; 422,74</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,16; 230,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,5; 212,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,23; 339,42</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 6,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 2,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 3,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 4,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 3,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,54%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,85; 304,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,03; 184,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,38; 228,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,82; 235,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 417,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,86; 264,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,77; 238,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,89; 181,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,52; 174,26</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 6,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 7,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 5,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 6,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 6,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 5,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 5,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 6,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>193,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>382,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>551,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>637,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>199,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>235,2%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-7,69; 665,97</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 598,27</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 721,5</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,45; 577,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,87; 690,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,66; 841,77</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 5,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 5,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 2,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 3,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 2,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 3,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 3,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,43; 3,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,61%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,28; 254,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,91; 180,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,93; 231,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,65; 231,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,61; 353,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 319,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,54; 204,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,66; 173,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,13; 189,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,69</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,17</t>
+          <t>1,32; 9,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,8</t>
+          <t>-4,73; 1,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,21</t>
+          <t>0,89; 6,86</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>151,21%</t>
+          <t>160,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,76%</t>
+          <t>-31,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>126,11%</t>
+          <t>136,93%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,7; 422,74</t>
+          <t>25,35; 475,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 339,42</t>
+          <t>16,4; 362,34</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,07</t>
+          <t>1,2; 5,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,88</t>
+          <t>-1,61; 2,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,42</t>
+          <t>0,08; 3,45</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>102,14%</t>
+          <t>104,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>72,38%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,38; 228,44</t>
+          <t>26,73; 233,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 264,12</t>
+          <t>-61,22; 212,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 174,26</t>
+          <t>4,26; 168,56</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,69</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,62</t>
+          <t>1,27; 7,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,84</t>
+          <t>0,81; 6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,21</t>
+          <t>1,56; 6,13</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>193,98%</t>
+          <t>192,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>637,68%</t>
+          <t>597,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>235,2%</t>
+          <t>230,18%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,44; 721,5</t>
+          <t>14,31; 719,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,66; 841,77</t>
+          <t>47,38; 829,15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,38</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,1</t>
+          <t>2,0; 5,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,9</t>
+          <t>-0,62; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,73</t>
+          <t>1,0; 3,62</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>123,98%</t>
+          <t>126,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107,61%</t>
+          <t>101,95%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,93; 231,96</t>
+          <t>64,01; 237,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 319,1</t>
+          <t>-29,05; 250,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,13; 189,57</t>
+          <t>38,12; 187,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 6,2</t>
+          <t>0,62; 6,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,67</t>
+          <t>-0,54; 5,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 9,01</t>
+          <t>1,61; 9,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,76</t>
+          <t>-4,13; 1,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,28</t>
+          <t>-4,7; 0,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,91</t>
+          <t>-4,65; 1,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,25</t>
+          <t>-0,16; 4,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,76</t>
+          <t>-0,88; 3,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,86</t>
+          <t>1,23; 6,96</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 351,98</t>
+          <t>4,19; 328,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 308,49</t>
+          <t>-15,85; 289,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,35; 475,93</t>
+          <t>29,59; 442,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 230,75</t>
+          <t>-8,62; 257,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 212,64</t>
+          <t>-33,13; 209,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 362,34</t>
+          <t>26,73; 380,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,27</t>
+          <t>2,69; 6,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,78</t>
+          <t>0,74; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,34</t>
+          <t>0,89; 5,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,27</t>
+          <t>-1,1; 2,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,78</t>
+          <t>-0,02; 3,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,33</t>
+          <t>-1,93; 2,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,6</t>
+          <t>1,84; 4,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,42</t>
+          <t>0,91; 3,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,45</t>
+          <t>-0,08; 3,28</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,85; 304,02</t>
+          <t>72,44; 289,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 184,01</t>
+          <t>17,49; 184,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 233,85</t>
+          <t>21,24; 234,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 235,71</t>
+          <t>-48,27; 224,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 417,4</t>
+          <t>-4,61; 407,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,22; 212,01</t>
+          <t>-67,16; 204,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,77; 238,4</t>
+          <t>52,27; 221,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,89; 181,38</t>
+          <t>27,63; 178,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 168,56</t>
+          <t>-3,54; 159,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,32</t>
+          <t>0,81; 7,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,88</t>
+          <t>0,44; 7,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,62</t>
+          <t>0,93; 7,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,51</t>
+          <t>-0,01; 6,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,2</t>
+          <t>0,54; 6,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,29</t>
+          <t>0,82; 6,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,54</t>
+          <t>0,69; 5,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,41</t>
+          <t>1,14; 5,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,13</t>
+          <t>1,64; 6,11</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 665,97</t>
+          <t>0,79; 711,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 598,27</t>
+          <t>-1,5; 679,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,31; 719,27</t>
+          <t>1,71; 600,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,45; 577,39</t>
+          <t>7,7; 647,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,87; 690,72</t>
+          <t>26,27; 634,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>47,38; 829,15</t>
+          <t>47,34; 814,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,49</t>
+          <t>2,58; 5,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,93</t>
+          <t>1,27; 3,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,31</t>
+          <t>1,96; 5,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,13</t>
+          <t>-0,59; 1,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,17</t>
+          <t>0,49; 3,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,38</t>
+          <t>-1,1; 2,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,89</t>
+          <t>1,78; 3,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,19</t>
+          <t>1,22; 3,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,62</t>
+          <t>1,07; 3,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,28; 254,33</t>
+          <t>76,14; 244,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,91; 180,49</t>
+          <t>38,59; 179,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>64,01; 237,03</t>
+          <t>58,03; 224,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 231,32</t>
+          <t>-32,19; 213,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,61; 353,94</t>
+          <t>17,06; 355,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 250,48</t>
+          <t>-42,9; 217,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>66,54; 204,54</t>
+          <t>60,56; 201,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,66; 173,68</t>
+          <t>40,85; 160,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,12; 187,18</t>
+          <t>40,17; 174,27</t>
         </is>
       </c>
     </row>
